--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1940852.097686948</v>
+        <v>1936547.780638706</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.3828147651843</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>219.1522629091191</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651789</v>
+        <v>263.3828147651843</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3828147651789</v>
+        <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739397</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.793800617969</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>14.93107775572937</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.3828147651843</v>
       </c>
     </row>
     <row r="3">
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500682</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642721</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881891</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8434583985096</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>209.3276610406305</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>134.9433020160839</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,22 +825,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482567</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718865</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.0658839333258</v>
+        <v>2.924321302599783</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>85.20115868761653</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>221.0427070190019</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>71.9386292366232</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>121.1949902997461</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.32463108040577</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>38.30301582052414</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>166.5847305737477</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295398</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>90.21558262730194</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>9.452660316473347</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.69811547110473</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>4.019807611472472</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>171.5573199799897</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C16" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>140.2569953879477</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>5.89033710687798</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>218.227129859624</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695562</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>66.85274231757755</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>113.5413580759688</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>28.87857325623944</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,13 +2797,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>106.5290632934498</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.63623515385353</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>30.87238256912001</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.453391420151112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>105.5373371683558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>182.3203821379245</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>1.255571502167253</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>93.38904885909318</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>669.6730679128281</v>
+        <v>787.4880118231774</v>
       </c>
       <c r="C2" t="n">
-        <v>669.6730679128281</v>
+        <v>521.4447645856176</v>
       </c>
       <c r="D2" t="n">
-        <v>669.6730679128281</v>
+        <v>300.0788424551943</v>
       </c>
       <c r="E2" t="n">
-        <v>669.6730679128281</v>
+        <v>300.0788424551943</v>
       </c>
       <c r="F2" t="n">
-        <v>403.6298206752735</v>
+        <v>34.03559521763438</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377191</v>
+        <v>21.07062518121475</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377191</v>
+        <v>21.07062518121475</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121431</v>
+        <v>21.07062518121475</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467289</v>
+        <v>49.15993901467471</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935551</v>
+        <v>141.9970572935594</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959951</v>
+        <v>294.0714735960026</v>
       </c>
       <c r="M2" t="n">
-        <v>494.953000779595</v>
+        <v>494.9530007796056</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670292</v>
+        <v>703.6988094670428</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288904</v>
+        <v>887.4762960289072</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108062</v>
+        <v>1009.825128108082</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060716</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060716</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193329</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="T2" t="n">
-        <v>684.754964635787</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="U2" t="n">
-        <v>684.754964635787</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="V2" t="n">
-        <v>669.6730679128281</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="W2" t="n">
-        <v>669.6730679128281</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="X2" t="n">
-        <v>669.6730679128281</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="Y2" t="n">
-        <v>669.6730679128281</v>
+        <v>787.4880118231774</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>270.4951768071189</v>
+        <v>453.9368984567934</v>
       </c>
       <c r="C3" t="n">
-        <v>270.4951768071189</v>
+        <v>453.9368984567934</v>
       </c>
       <c r="D3" t="n">
-        <v>121.5607671458677</v>
+        <v>305.0024887955421</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5607671458677</v>
+        <v>305.0024887955421</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5607671458677</v>
+        <v>158.4679308224271</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5607671458677</v>
+        <v>21.07062518121475</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121431</v>
+        <v>21.07062518121475</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121431</v>
+        <v>21.07062518121475</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121431</v>
+        <v>21.07062518121475</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001370992</v>
+        <v>95.65665001371197</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433161</v>
+        <v>242.2693060433202</v>
       </c>
       <c r="M3" t="n">
-        <v>477.7931567591749</v>
+        <v>432.7162285299083</v>
       </c>
       <c r="N3" t="n">
-        <v>738.542143376702</v>
+        <v>642.6123592779595</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748474</v>
+        <v>812.4065171761073</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062215</v>
+        <v>1025.278016062235</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060716</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155234</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="S3" t="n">
-        <v>886.5091315712043</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="T3" t="n">
-        <v>689.6975574312955</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="U3" t="n">
-        <v>689.6975574312955</v>
+        <v>825.3953723613482</v>
       </c>
       <c r="V3" t="n">
-        <v>478.2554755720728</v>
+        <v>590.2432641296054</v>
       </c>
       <c r="W3" t="n">
-        <v>478.2554755720728</v>
+        <v>590.2432641296054</v>
       </c>
       <c r="X3" t="n">
-        <v>478.2554755720728</v>
+        <v>590.2432641296054</v>
       </c>
       <c r="Y3" t="n">
-        <v>270.4951768071189</v>
+        <v>453.9368984567934</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>503.2976855970386</v>
+        <v>640.9393834308643</v>
       </c>
       <c r="C4" t="n">
-        <v>334.3615026691317</v>
+        <v>472.0032005029574</v>
       </c>
       <c r="D4" t="n">
-        <v>184.244863256796</v>
+        <v>321.8865610906216</v>
       </c>
       <c r="E4" t="n">
-        <v>36.33176967440291</v>
+        <v>321.8865610906216</v>
       </c>
       <c r="F4" t="n">
-        <v>36.33176967440291</v>
+        <v>174.9966135927112</v>
       </c>
       <c r="G4" t="n">
-        <v>36.33176967440291</v>
+        <v>174.9966135927112</v>
       </c>
       <c r="H4" t="n">
-        <v>36.33176967440291</v>
+        <v>21.07062518121475</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440291</v>
+        <v>21.07062518121475</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121431</v>
+        <v>21.07062518121475</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481195</v>
+        <v>126.3277805481209</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504844</v>
+        <v>316.547135250487</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570811</v>
+        <v>527.4958971570851</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210582</v>
+        <v>738.8633854210635</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376775</v>
+        <v>918.0791761376839</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351419</v>
+        <v>1047.908563351427</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060716</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="R4" t="n">
-        <v>924.715389897194</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="S4" t="n">
-        <v>924.715389897194</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="T4" t="n">
-        <v>924.715389897194</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="U4" t="n">
-        <v>924.715389897194</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="V4" t="n">
-        <v>670.0309016913071</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="W4" t="n">
-        <v>670.0309016913071</v>
+        <v>1053.531259060737</v>
       </c>
       <c r="X4" t="n">
-        <v>670.0309016913071</v>
+        <v>825.5417081627199</v>
       </c>
       <c r="Y4" t="n">
-        <v>503.2976855970386</v>
+        <v>822.587848261104</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>677.2692571593335</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="C5" t="n">
-        <v>677.2692571593335</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="D5" t="n">
-        <v>677.2692571593335</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="E5" t="n">
-        <v>677.2692571593335</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="F5" t="n">
-        <v>670.32375641013</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4570,13 +4570,13 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4597,22 +4597,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>814.482942342551</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="W5" t="n">
-        <v>677.2692571593335</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="X5" t="n">
-        <v>677.2692571593335</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="Y5" t="n">
-        <v>677.2692571593335</v>
+        <v>560.7979242836799</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362.0967104438881</v>
+        <v>422.0590954687428</v>
       </c>
       <c r="C6" t="n">
-        <v>362.0967104438881</v>
+        <v>422.0590954687428</v>
       </c>
       <c r="D6" t="n">
-        <v>362.0967104438881</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="E6" t="n">
-        <v>202.8592554384327</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F6" t="n">
         <v>202.8592554384327</v>
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="V6" t="n">
-        <v>652.7312295849117</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="W6" t="n">
-        <v>530.3120474639561</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="X6" t="n">
-        <v>530.3120474639561</v>
+        <v>422.0590954687428</v>
       </c>
       <c r="Y6" t="n">
-        <v>530.3120474639561</v>
+        <v>422.0590954687428</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.1476843601621</v>
+        <v>378.8398477105895</v>
       </c>
       <c r="C7" t="n">
-        <v>183.2115014322552</v>
+        <v>209.9036647826826</v>
       </c>
       <c r="D7" t="n">
-        <v>183.2115014322552</v>
+        <v>59.7870253703469</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>59.7870253703469</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4731,16 +4731,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>671.3785036348206</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>405.0008470676427</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X7" t="n">
-        <v>405.0008470676427</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="Y7" t="n">
-        <v>405.0008470676427</v>
+        <v>560.4883125408293</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360222</v>
+        <v>440.2894267190545</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.63763941981</v>
+        <v>440.2894267190545</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>440.2894267190545</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>440.2894267190545</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>433.343925969851</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345439</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>117.6204357321143</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.51718528161</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872947</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923566</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230823</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740848</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721765007</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424344</v>
+        <v>826.8892667831763</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182519</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370166</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>423.1489515180674</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>717.8525085495403</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1209.253210781436</v>
       </c>
       <c r="N9" t="n">
-        <v>1852.283970943245</v>
+        <v>1843.432194560474</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736637</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568935</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676481</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.9577966591559</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>602.021613731249</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1626.897978340686</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="S10" t="n">
-        <v>1430.269230500547</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="T10" t="n">
-        <v>1207.290749695283</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="U10" t="n">
-        <v>1207.290749695283</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>952.6062614893956</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>952.6062614893956</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>952.6062614893956</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>952.6062614893956</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687895</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2273.672861378251</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="14">
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C16" t="n">
-        <v>390.823249958218</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.4916164683251</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C19" t="n">
-        <v>923.4916164683251</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D19" t="n">
-        <v>773.3749770559893</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>408.6744289523867</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>241.4783296672667</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>99.76649850946478</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510505</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854703</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648816</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611855</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611855</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683251</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290469</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2332.274843099484</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2332.274843099484</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2043.199616443682</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1788.515128237795</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.097958200834</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1271.108407302817</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159287</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2350.747103816259</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2131.145638839201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1842.070412183399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.385923977512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>368.61787677092</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2410.966886455156</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2410.966886455156</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2191.365421478097</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1902.290194822295</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.605706616408</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.188536579448</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.19898568143</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2165.878320670274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>954.2476448606602</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
         <v>549.6145409888043</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y40" t="n">
-        <v>1135.8961096909</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D43" t="n">
-        <v>633.9926444679666</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>486.0795508855734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,7 +7684,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7730,16 +7730,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.5916434387733</v>
+        <v>60.59164343877214</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079749</v>
+        <v>2.109135423078811</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,16 +8066,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45.53225073663961</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.36652108028142</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>96.89877181692771</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.5052187271931</v>
+        <v>64.50521872720664</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127221</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>129.4330134067416</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>249.3877325071635</v>
       </c>
       <c r="O9" t="n">
-        <v>15.64270034434946</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>45.84813034729859</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C16" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6.17696725862146</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.37549921168754</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>106.465793928349</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>7.482525529413124</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>112.9792378643597</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>67.48492792567578</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>152.1477127454052</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>38.89198472948144</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>30.73901155626816</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>186.5330677581682</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>176.3785887617862</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>34.97276993489206</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>61.70948393027203</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>103.8640922513196</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>144.165476520764</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>73.85777223953465</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>879078.9717285214</v>
+        <v>879078.9717285216</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>884972.4559447663</v>
+        <v>884972.4559447661</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26365,37 +26365,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909277</v>
+        <v>679702.412490934</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680958035</v>
+        <v>366.4703680897109</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>391128.3638059455</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245441</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>2.370099883548738e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642048</v>
+        <v>68912.53318642189</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774307851</v>
+        <v>85.20559774167407</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674036</v>
+        <v>253116.5477674019</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676994</v>
+        <v>142746.9572676992</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26432,7 +26432,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26447,7 +26447,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557677</v>
+        <v>63021.4616455772</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-421111.1829989098</v>
+        <v>-421111.1829989146</v>
       </c>
       <c r="C6" t="n">
-        <v>258298.2004253017</v>
+        <v>258298.2004253076</v>
       </c>
       <c r="D6" t="n">
-        <v>-52083.8546084891</v>
+        <v>-52083.85460849098</v>
       </c>
       <c r="E6" t="n">
-        <v>-55992.27184726698</v>
+        <v>-56339.65110162199</v>
       </c>
       <c r="F6" t="n">
-        <v>451493.1697772793</v>
+        <v>451145.7905229224</v>
       </c>
       <c r="G6" t="n">
-        <v>451493.169777279</v>
+        <v>451145.7905229221</v>
       </c>
       <c r="H6" t="n">
-        <v>451493.1697772791</v>
+        <v>451145.7905229225</v>
       </c>
       <c r="I6" t="n">
-        <v>451493.1697772792</v>
+        <v>451145.7905229224</v>
       </c>
       <c r="J6" t="n">
-        <v>382580.6365908587</v>
+        <v>382233.2573365003</v>
       </c>
       <c r="K6" t="n">
-        <v>451407.9641795362</v>
+        <v>451060.5849251805</v>
       </c>
       <c r="L6" t="n">
-        <v>356110.5236397095</v>
+        <v>355763.1443853525</v>
       </c>
       <c r="M6" t="n">
-        <v>318885.8760483525</v>
+        <v>318538.4967939956</v>
       </c>
       <c r="N6" t="n">
-        <v>451493.1697772791</v>
+        <v>451145.7905229224</v>
       </c>
       <c r="O6" t="n">
-        <v>451493.1697772793</v>
+        <v>451145.7905229221</v>
       </c>
       <c r="P6" t="n">
-        <v>451493.1697772791</v>
+        <v>451145.7905229224</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.77002329605</v>
+        <v>613.7700232960547</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651789</v>
+        <v>263.3828147651843</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.77002329605</v>
+        <v>613.7700232960547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734283655</v>
+        <v>0.2849904734235906</v>
       </c>
       <c r="D3" t="n">
-        <v>320.009878348061</v>
+        <v>320.0098783480634</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241324</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651789</v>
+        <v>263.3828147651843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363272197</v>
+        <v>0.3310652363218196</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651789</v>
+        <v>263.3828147651843</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363272766</v>
+        <v>0.3310652363218196</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651789</v>
+        <v>263.3828147651843</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363272197</v>
+        <v>0.3310652363218196</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.8900770058232</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>135.5307787115639</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765325</v>
+        <v>143.4932309765271</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4525055708766</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>314.205365930518</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.350788773939</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179686</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627103</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>312.8211807144056</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.8551238908693</v>
       </c>
     </row>
     <row r="3">
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48524054500672</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807552</v>
+        <v>43.94290942807518</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1905846264266</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>23.47292610879481</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>70.73939376122044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>122.166028418023</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.10853304825612</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718861</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196194</v>
+        <v>204.7281204196192</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
@@ -27596,16 +27596,16 @@
         <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.51876941876895</v>
+        <v>215.660332049495</v>
       </c>
     </row>
     <row r="5">
@@ -27636,7 +27636,7 @@
         <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>128.1982616984111</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>75.50643632801555</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>130.4999928611736</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.5073491015315</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>107.1180322024071</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,13 +27833,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>188.0983110469352</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>296.0223560287516</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28031,7 +28031,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>92.10491210310028</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>195.5290386500959</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-2.085662007260384e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>5.745110207672475e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079596</v>
+        <v>2.467417179079615</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524892</v>
+        <v>25.26943618524911</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646623</v>
+        <v>95.12510079646694</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029071</v>
+        <v>209.4189488029087</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933464</v>
+        <v>313.8647179933488</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876037</v>
+        <v>389.3769364876067</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460604</v>
+        <v>433.2568667460637</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061204</v>
+        <v>440.2674158061237</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316476</v>
+        <v>415.7320362316508</v>
       </c>
       <c r="P2" t="n">
-        <v>354.81767462312</v>
+        <v>354.8176746231227</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973319</v>
+        <v>266.4532968973339</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753588</v>
+        <v>154.99389437536</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827635</v>
+        <v>56.22626896827678</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142094</v>
+        <v>10.80111870142102</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263676</v>
+        <v>0.1973933743263691</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410372</v>
+        <v>1.320184578410382</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148965</v>
+        <v>12.75020369148974</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333956</v>
+        <v>45.4537234233399</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435869</v>
+        <v>124.7284912435879</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970818</v>
+        <v>213.1808579970835</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289713</v>
+        <v>286.6479717289735</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963472</v>
+        <v>334.5046626963497</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682308</v>
+        <v>343.3580057682335</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466115</v>
+        <v>314.1054948466139</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439946</v>
+        <v>252.0973516439965</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774362</v>
+        <v>168.5204033774375</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621592</v>
+        <v>81.96724952621653</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564877</v>
+        <v>24.52184951564896</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311979</v>
+        <v>5.32127029631202</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962976</v>
+        <v>0.08685424857963041</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665008</v>
+        <v>1.106798402665016</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980057987</v>
+        <v>9.840443980058064</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923498</v>
+        <v>33.28444650923523</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841607</v>
+        <v>78.25064706841665</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823527</v>
+        <v>128.5898507823537</v>
       </c>
       <c r="L4" t="n">
-        <v>164.550737065305</v>
+        <v>164.5507370653062</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195703</v>
+        <v>173.4956805195716</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187281</v>
+        <v>169.3703410187294</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148687</v>
+        <v>156.4409233148698</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005024</v>
+        <v>133.8622359005034</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770355</v>
+        <v>92.67927351770425</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528298</v>
+        <v>49.76568090528337</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735291</v>
+        <v>19.28847761735305</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477761</v>
+        <v>4.729047720477796</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354596</v>
+        <v>0.06037082196354642</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>361.5531172119654</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622078</v>
+        <v>28.37304427622237</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836585</v>
+        <v>93.77486694836824</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176165</v>
+        <v>153.6105215176194</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187877</v>
+        <v>202.910633518791</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095295</v>
+        <v>210.8543522095328</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099609</v>
+        <v>185.6338248099641</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678505</v>
+        <v>123.5846788678532</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288245</v>
+        <v>44.14760702288444</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272284</v>
+        <v>75.33941902272446</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490971</v>
+        <v>148.0935919490993</v>
       </c>
       <c r="M3" t="n">
-        <v>237.9028795109685</v>
+        <v>192.3706287743314</v>
       </c>
       <c r="N3" t="n">
-        <v>263.3828147651789</v>
+        <v>212.0162936849001</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021671</v>
+        <v>171.5092504021695</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296644</v>
+        <v>215.021716046594</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141471</v>
+        <v>28.53862929141602</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564699</v>
+        <v>106.3203589564708</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256211</v>
+        <v>192.1407623256223</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814109</v>
+        <v>213.0795574814122</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979567</v>
+        <v>213.502513397958</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289083</v>
+        <v>181.0260512289095</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653959</v>
+        <v>131.1407951653969</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615450803</v>
+        <v>5.679490615465043</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250132</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313267</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434856</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378513</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>496.3643456887834</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>351.0673823404725</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235333</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308552</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977125</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.626132989904</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>219.4190832899471</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>265.4651371077849</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1936547.780638706</v>
+        <v>1938308.310941491</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283173</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651843</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="D2" t="n">
-        <v>219.1522629091191</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651843</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83532033605544</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651843</v>
+        <v>212.2762171674059</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807528</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642678</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>34.5781598498121</v>
       </c>
       <c r="Y3" t="n">
-        <v>134.9433020160839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>9.841781358920608</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.924321302599783</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>85.20115868761653</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>71.9386292366232</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>10.18456372565624</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,22 +1062,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>38.30301582052414</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>53.91567440413833</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295398</v>
+        <v>47.09132058709885</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>90.21558262730194</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>93.89254046638206</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110473</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>171.5573199799897</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274582</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>117.4765410832877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,10 +1903,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>43.55707494718542</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>5.89033710687798</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>42.14967908986335</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>81.74333192602201</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695562</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.85274231757755</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>222.7171375262241</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>180.1003471321765</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>106.5290632934498</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>113.642703083328</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>103.1686991936193</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788183532</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5513683573768</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>182.3203821379245</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>93.38904885909318</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.4880118231774</v>
+        <v>307.024343204396</v>
       </c>
       <c r="C2" t="n">
-        <v>521.4447645856176</v>
+        <v>40.98109596683773</v>
       </c>
       <c r="D2" t="n">
-        <v>300.0788424551943</v>
+        <v>40.98109596683773</v>
       </c>
       <c r="E2" t="n">
-        <v>300.0788424551943</v>
+        <v>40.98109596683773</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763438</v>
+        <v>34.03559521763425</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121475</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121475</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121475</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467471</v>
+        <v>49.15993901467414</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935594</v>
+        <v>141.997057293558</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735960026</v>
+        <v>294.0714735960003</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796056</v>
+        <v>494.9530007796023</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670428</v>
+        <v>703.6988094670385</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289072</v>
+        <v>887.4762960289019</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108082</v>
+        <v>1009.825128108076</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="V2" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="W2" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="X2" t="n">
-        <v>1053.531259060737</v>
+        <v>787.4880118231724</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.4880118231774</v>
+        <v>573.0675904419543</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.9368984567934</v>
+        <v>832.0141599434518</v>
       </c>
       <c r="C3" t="n">
-        <v>453.9368984567934</v>
+        <v>657.5611306623248</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0024887955421</v>
+        <v>508.6267210010736</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0024887955421</v>
+        <v>349.3892659956181</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4679308224271</v>
+        <v>202.854708022503</v>
       </c>
       <c r="G3" t="n">
-        <v>21.07062518121475</v>
+        <v>65.45740238129066</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121475</v>
+        <v>65.45740238129066</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121475</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121475</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371197</v>
+        <v>95.65665001371131</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433202</v>
+        <v>242.2693060433189</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299083</v>
+        <v>432.7162285299062</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779595</v>
+        <v>642.6123592779566</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171761073</v>
+        <v>812.4065171761035</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062235</v>
+        <v>1025.278016062229</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060737</v>
+        <v>1035.156931155249</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.531259060737</v>
+        <v>1035.156931155249</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.531259060737</v>
+        <v>1035.156931155249</v>
       </c>
       <c r="U3" t="n">
-        <v>825.3953723613482</v>
+        <v>1035.156931155249</v>
       </c>
       <c r="V3" t="n">
-        <v>590.2432641296054</v>
+        <v>1035.156931155249</v>
       </c>
       <c r="W3" t="n">
-        <v>590.2432641296054</v>
+        <v>1035.156931155249</v>
       </c>
       <c r="X3" t="n">
-        <v>590.2432641296054</v>
+        <v>1000.22949696352</v>
       </c>
       <c r="Y3" t="n">
-        <v>453.9368984567934</v>
+        <v>1000.22949696352</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.9393834308643</v>
+        <v>340.1234475214573</v>
       </c>
       <c r="C4" t="n">
-        <v>472.0032005029574</v>
+        <v>171.1872645935503</v>
       </c>
       <c r="D4" t="n">
-        <v>321.8865610906216</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="E4" t="n">
-        <v>321.8865610906216</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9966135927112</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="G4" t="n">
-        <v>174.9966135927112</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121475</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121475</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121475</v>
+        <v>21.07062518121461</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481209</v>
+        <v>126.3277805481205</v>
       </c>
       <c r="L4" t="n">
-        <v>316.547135250487</v>
+        <v>316.5471352504862</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570851</v>
+        <v>526.6665349030405</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210635</v>
+        <v>738.0340231670185</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376839</v>
+        <v>917.2498138836386</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351427</v>
+        <v>1047.079201097381</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060737</v>
+        <v>1053.531259060731</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.531259060737</v>
+        <v>1043.590065768892</v>
       </c>
       <c r="U4" t="n">
-        <v>1053.531259060737</v>
+        <v>1043.590065768892</v>
       </c>
       <c r="V4" t="n">
-        <v>1053.531259060737</v>
+        <v>788.9055775630047</v>
       </c>
       <c r="W4" t="n">
-        <v>1053.531259060737</v>
+        <v>788.9055775630047</v>
       </c>
       <c r="X4" t="n">
-        <v>825.5417081627199</v>
+        <v>560.9160266649874</v>
       </c>
       <c r="Y4" t="n">
-        <v>822.587848261104</v>
+        <v>340.1234475214573</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.7979242836799</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>560.7979242836799</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="D5" t="n">
-        <v>560.7979242836799</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E5" t="n">
-        <v>560.7979242836799</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F5" t="n">
-        <v>553.8524235344764</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4570,19 +4570,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515908</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>814.482942342551</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>560.7979242836799</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>560.7979242836799</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>560.7979242836799</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>560.7979242836799</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.7979242836799</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>422.0590954687428</v>
+        <v>660.5440004277928</v>
       </c>
       <c r="C6" t="n">
-        <v>422.0590954687428</v>
+        <v>486.0909711466658</v>
       </c>
       <c r="D6" t="n">
-        <v>349.3938134115477</v>
+        <v>337.1565614854145</v>
       </c>
       <c r="E6" t="n">
-        <v>349.3938134115477</v>
+        <v>177.919106479959</v>
       </c>
       <c r="F6" t="n">
-        <v>202.8592554384327</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742757</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>629.9105956742757</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>629.9105956742757</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>422.0590954687428</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y6" t="n">
-        <v>422.0590954687428</v>
+        <v>828.7593374478608</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>378.8398477105895</v>
+        <v>873.2070551757848</v>
       </c>
       <c r="C7" t="n">
-        <v>209.9036647826826</v>
+        <v>704.2708722478779</v>
       </c>
       <c r="D7" t="n">
-        <v>59.7870253703469</v>
+        <v>554.1542328355422</v>
       </c>
       <c r="E7" t="n">
-        <v>59.7870253703469</v>
+        <v>406.2411392531491</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>259.3511917552387</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>90.78183111024214</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4734,7 +4734,7 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>560.4883125408293</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.4883125408293</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>440.2894267190545</v>
+        <v>474.7217947496374</v>
       </c>
       <c r="C8" t="n">
-        <v>440.2894267190545</v>
+        <v>105.7592778092256</v>
       </c>
       <c r="D8" t="n">
-        <v>440.2894267190545</v>
+        <v>105.7592778092256</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190545</v>
+        <v>105.7592778092256</v>
       </c>
       <c r="F8" t="n">
-        <v>433.343925969851</v>
+        <v>98.81377706002216</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345439</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218651</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y8" t="n">
-        <v>826.8892667831763</v>
+        <v>861.3216348137591</v>
       </c>
     </row>
     <row r="9">
@@ -4859,55 +4859,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182519</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180674</v>
+        <v>482.9033490193029</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495403</v>
+        <v>777.6069060507747</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781436</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560474</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736637</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568935</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676481</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>461.9138669598628</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>292.977684031956</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>292.977684031956</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>292.977684031956</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>146.0877365340456</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>643.5623317901026</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5059,7 +5059,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,16 +5117,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
         <v>1522.21291626627</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.672861378251</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1984.597634722449</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.913146516562</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.495976479601</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.506425581584</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,31 +5260,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,13 +5363,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.8388927589092</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.530292372933</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>853.594109445026</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>703.4774700326902</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E19" t="n">
-        <v>555.5643764502971</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>408.6744289523867</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>241.4783296672667</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>99.76649850946478</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487568</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.378057281681</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346703</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.178757203173</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5755,16 +5755,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2297.348357685166</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2077.746892708107</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1788.671666052305</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1533.987177846418</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1244.570007809457</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6077,16 +6077,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y25" t="n">
-        <v>1166.195182806534</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900017</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>295.5818533952728</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>148.6919058973624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6390,46 +6390,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797819</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910817</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570825</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935558</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>666.6476097656489</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>516.5309703533131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>368.61787677092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6630,43 +6630,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910817</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570825</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>198.027470314254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6867,43 +6867,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>449.4852666057155</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4852666057155</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>449.4852666057155</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7174,13 +7174,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U40" t="n">
-        <v>2043.199616443682</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V40" t="n">
-        <v>1788.515128237795</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W40" t="n">
-        <v>1499.097958200834</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>1271.108407302817</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7414,16 +7414,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7548,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1024.063349920562</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
         <v>929.7309773356195</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1205.711814750802</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877214</v>
+        <v>60.59164343877251</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423078811</v>
+        <v>2.10913542307911</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>96.89877181692771</v>
+        <v>96.89877181692592</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>177.6719212588969</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872720664</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>186.4490126143853</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>129.4330134067416</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071635</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>45.84813034729859</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>176.3785887617859</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>102.8768876993838</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.37549921168754</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>106.465793928349</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>99.28295407562258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.9792378643597</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>2.992517862813031</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.9259388694680695</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>38.89198472948144</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>138.4949402405</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>37.12601365260461</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392193815</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G37" t="n">
-        <v>34.97276993489206</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>103.8640922513196</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>73.85777223953465</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>884972.4559447661</v>
+        <v>884972.4559447663</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097407</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097407</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049982</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049985</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
@@ -26325,34 +26325,34 @@
         <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.412490934</v>
+        <v>679702.412490932</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680897109</v>
+        <v>366.4703680915893</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059455</v>
+        <v>391128.3638059438</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245441</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642189</v>
+        <v>68912.53318642151</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774167407</v>
+        <v>85.20559774203981</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674019</v>
+        <v>253116.5477674024</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676992</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26441,16 +26441,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181823</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181823</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.4616455772</v>
+        <v>63021.46164557707</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-421111.1829989146</v>
+        <v>-421111.1829989133</v>
       </c>
       <c r="C6" t="n">
-        <v>258298.2004253076</v>
+        <v>258298.2004253056</v>
       </c>
       <c r="D6" t="n">
-        <v>-52083.85460849098</v>
+        <v>-52083.85460848943</v>
       </c>
       <c r="E6" t="n">
-        <v>-56339.65110162199</v>
+        <v>-56027.00977270227</v>
       </c>
       <c r="F6" t="n">
-        <v>451145.7905229224</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="G6" t="n">
-        <v>451145.7905229221</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="H6" t="n">
-        <v>451145.7905229225</v>
+        <v>451458.4318518437</v>
       </c>
       <c r="I6" t="n">
-        <v>451145.7905229224</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="J6" t="n">
-        <v>382233.2573365003</v>
+        <v>382545.8986654219</v>
       </c>
       <c r="K6" t="n">
-        <v>451060.5849251805</v>
+        <v>451373.2262541016</v>
       </c>
       <c r="L6" t="n">
-        <v>355763.1443853525</v>
+        <v>356075.7857142737</v>
       </c>
       <c r="M6" t="n">
-        <v>318538.4967939956</v>
+        <v>318851.1381229169</v>
       </c>
       <c r="N6" t="n">
-        <v>451145.7905229224</v>
+        <v>451458.4318518437</v>
       </c>
       <c r="O6" t="n">
-        <v>451145.7905229221</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="P6" t="n">
-        <v>451145.7905229224</v>
+        <v>451458.4318518436</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960547</v>
+        <v>613.7700232960532</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651843</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-3.218023548783845e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960547</v>
+        <v>613.7700232960532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734235906</v>
+        <v>0.2849904734250686</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480634</v>
+        <v>320.0098783480612</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241324</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651843</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363218196</v>
+        <v>0.3310652363234681</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651843</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363218196</v>
+        <v>0.3310652363232407</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651843</v>
+        <v>263.3828147651827</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363218196</v>
+        <v>0.3310652363234681</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.3510268982979</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058232</v>
+        <v>101.8900770058249</v>
       </c>
       <c r="D2" t="n">
-        <v>135.5307787115639</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765271</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.205365930518</v>
+        <v>314.2053659305181</v>
       </c>
       <c r="I2" t="n">
-        <v>115.350788773939</v>
+        <v>115.3507887739392</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179686</v>
+        <v>152.7938006179687</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627103</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.3482859132864</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.8551238908693</v>
+        <v>173.9617214886476</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500672</v>
+        <v>99.48524054500675</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807518</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1905846264266</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1613215881889</v>
@@ -27514,19 +27514,19 @@
         <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>171.1948253536654</v>
       </c>
       <c r="Y3" t="n">
-        <v>70.73939376122044</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>122.166028418023</v>
+        <v>122.1660284180231</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825612</v>
+        <v>15.10853304825631</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718861</v>
+        <v>127.5277104718862</v>
       </c>
       <c r="S4" t="n">
         <v>204.7281204196192</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>213.3747603488831</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>215.660332049495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>132.9937062656811</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>127.0885569156067</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>75.50643632801555</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.73724027584936</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>107.1180322024071</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>98.46648493171845</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>364.4563821858551</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>296.0223560287516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>72.41405957842213</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386500959</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>7.517303009959063e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29702,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>7.517303009959063e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079615</v>
+        <v>2.467417179079609</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524911</v>
+        <v>25.26943618524905</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646694</v>
+        <v>95.12510079646671</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029087</v>
+        <v>209.4189488029081</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933488</v>
+        <v>313.8647179933481</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876067</v>
+        <v>389.3769364876057</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460637</v>
+        <v>433.2568667460627</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061237</v>
+        <v>440.2674158061227</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316508</v>
+        <v>415.7320362316498</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231227</v>
+        <v>354.8176746231219</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973339</v>
+        <v>266.4532968973333</v>
       </c>
       <c r="R2" t="n">
-        <v>154.99389437536</v>
+        <v>154.9938943753596</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827678</v>
+        <v>56.22626896827664</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142102</v>
+        <v>10.80111870142099</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263691</v>
+        <v>0.1973933743263687</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410382</v>
+        <v>1.320184578410379</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148974</v>
+        <v>12.75020369148971</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4537234233399</v>
+        <v>45.4537234233398</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435879</v>
+        <v>124.7284912435876</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970835</v>
+        <v>213.1808579970829</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289735</v>
+        <v>286.6479717289728</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963497</v>
+        <v>334.5046626963489</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682335</v>
+        <v>343.3580057682327</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466139</v>
+        <v>314.1054948466132</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439965</v>
+        <v>252.0973516439959</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774375</v>
+        <v>168.5204033774371</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621653</v>
+        <v>81.96724952621635</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564896</v>
+        <v>24.5218495156489</v>
       </c>
       <c r="T3" t="n">
-        <v>5.32127029631202</v>
+        <v>5.321270296312006</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963041</v>
+        <v>0.0868542485796302</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665016</v>
+        <v>1.106798402665014</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058064</v>
+        <v>9.840443980058039</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923523</v>
+        <v>33.28444650923515</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841665</v>
+        <v>78.25064706841647</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823537</v>
+        <v>128.5898507823534</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653062</v>
+        <v>164.5507370653058</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195716</v>
+        <v>173.4956805195712</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187294</v>
+        <v>169.370341018729</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148698</v>
+        <v>156.4409233148695</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005034</v>
+        <v>133.8622359005031</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770425</v>
+        <v>92.67927351770403</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528337</v>
+        <v>49.76568090528325</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735305</v>
+        <v>19.28847761735301</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477796</v>
+        <v>4.729047720477785</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354642</v>
+        <v>0.06037082196354628</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>549.9198891312099</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -32809,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33262,31 +33262,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622237</v>
+        <v>28.37304427622186</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836824</v>
+        <v>93.7748669483675</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176194</v>
+        <v>153.6105215176185</v>
       </c>
       <c r="M2" t="n">
-        <v>202.910633518791</v>
+        <v>202.91063351879</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095328</v>
+        <v>210.8543522095318</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099641</v>
+        <v>185.633824809963</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678532</v>
+        <v>123.5846788678523</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288444</v>
+        <v>44.14760702288382</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272446</v>
+        <v>75.33941902272394</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490993</v>
+        <v>148.0935919490986</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743314</v>
+        <v>192.3706287743306</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936849001</v>
+        <v>212.0162936848994</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021695</v>
+        <v>171.5092504021687</v>
       </c>
       <c r="P3" t="n">
-        <v>215.021716046594</v>
+        <v>215.0217160465916</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141602</v>
+        <v>28.53862929141559</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564708</v>
+        <v>106.3203589564706</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256223</v>
+        <v>192.1407623256219</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814122</v>
+        <v>212.241817830863</v>
       </c>
       <c r="N4" t="n">
-        <v>213.502513397958</v>
+        <v>213.5025133979576</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289095</v>
+        <v>181.0260512289092</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653969</v>
+        <v>131.1407951653966</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615465043</v>
+        <v>6.517230266009648</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>373.0365088578702</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>496.3643456887834</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>407.3236446867654</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36445,7 +36445,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36758,7 +36758,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.342014319139</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36910,31 +36910,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,7 +36998,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010526</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37235,7 +37235,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010489</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
